--- a/game/MMO/ExcelMMO/attribute.xlsx
+++ b/game/MMO/ExcelMMO/attribute.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5393A6AD-FC8E-4608-B284-15229D30259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F618FB72-F2E2-4B7B-B8AC-D585482CD2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35085" yWindow="1500" windowWidth="22410" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,20 @@
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="2">attribute!$D$42</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2671,7 +2684,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E140" sqref="E140"/>
+      <selection pane="bottomRight" activeCell="F139" sqref="B134:F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
